--- a/pred_ohlcv/54_21/2019-10-28 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XMR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>31.93182132132199</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>31.58442132132199</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>32.71502132132199</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>25.37362132132199</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -990,7 +990,7 @@
         <v>48.740221321322</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>59.54022132132199</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>57.22552132132199</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>52.71912132132199</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>48.942021321322</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>133.535821321322</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>134.734021321322</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>141.256021321322</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>146.551528418554</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>149.431528418554</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>147.404428418554</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>147.304428418554</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>146.892128418554</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>148.919228418554</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>150.854228418554</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>150.854228418554</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>166.788228418554</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>161.433128418554</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>158.952428418554</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>157.727428418554</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>157.227428418554</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>122.907428418554</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>131.861028418554</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>130.185928418554</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>131.208928418554</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>129.245928418554</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>126.395928418554</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 XMR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>31.93182132132199</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>31.58442132132199</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>32.71502132132199</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>34.84562132132199</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27.78282132132199</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -990,7 +990,7 @@
         <v>48.740221321322</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>59.54022132132199</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>57.22552132132199</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>52.71912132132199</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>48.942021321322</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>133.535821321322</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>134.734021321322</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>141.256021321322</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>159.024021321322</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>108.982621321322</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>151.094221321322</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>144.765021321322</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>146.481521321322</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>146.551528418554</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>146.551528418554</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>149.431528418554</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>147.404428418554</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>147.304428418554</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>147.404428418554</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>146.892128418554</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>148.919228418554</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>150.854228418554</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>150.854228418554</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>165.454228418554</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>166.788228418554</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>161.433128418554</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>158.952428418554</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>157.727428418554</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>157.227428418554</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>122.907428418554</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>131.861028418554</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>132.541028418554</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>130.185928418554</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>131.208928418554</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>129.245928418554</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>127.245928418554</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>117.475283973123</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>137.812389330265</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>139.312289330265</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
